--- a/Final_Report/TableforReport.xlsx
+++ b/Final_Report/TableforReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AAA_IC\A_ICL\Y4\7_MEng_Final_Year_Project\Final_Year_Project\Final_Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013A78E9-3558-4081-AD95-292457BDC15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62DF0AB-FAE9-49DE-8EA1-3BFBDD4B6917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
   <si>
     <t>T2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,10 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>scan time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Middle F-state</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -315,6 +311,14 @@
   </si>
   <si>
     <t>N                             (Number of echo = N)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effective scan time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 ms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -444,49 +448,52 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -768,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D13"/>
+  <dimension ref="B1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -782,12 +789,12 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>0</v>
@@ -797,7 +804,7 @@
       </c>
     </row>
     <row r="4" spans="2:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="9"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
@@ -806,7 +813,7 @@
       </c>
     </row>
     <row r="5" spans="2:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="9"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
@@ -815,7 +822,7 @@
       </c>
     </row>
     <row r="6" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="9"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
@@ -824,7 +831,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="9"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
@@ -833,7 +840,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
@@ -842,7 +849,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="9"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
@@ -851,7 +858,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="9"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
@@ -860,38 +867,50 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
+      <c r="C11"/>
+      <c r="D11"/>
+    </row>
+    <row r="12" spans="2:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12"/>
+      <c r="D12"/>
+    </row>
+    <row r="13" spans="2:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13"/>
+      <c r="D13"/>
+    </row>
+    <row r="14" spans="2:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="15"/>
+      <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="15"/>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="9"/>
-      <c r="C12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="9"/>
-      <c r="C13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:B10"/>
-    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -901,10 +920,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19665D0-91A2-449F-800B-D0BCEEA4FD5B}">
-  <dimension ref="B1:Y21"/>
+  <dimension ref="B1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -929,110 +948,84 @@
       </c>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="D3" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="H4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="18"/>
-      <c r="H4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="V4" s="10" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="V4" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C5" s="7"/>
-      <c r="D5" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="22"/>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="V5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="V5" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C6" s="7"/>
-      <c r="D6" s="11" t="s">
+      <c r="H6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="I6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="H6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="S6" s="13" t="s">
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="S6" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="T6" s="13"/>
+      <c r="T6" s="24"/>
       <c r="V6" s="8">
         <v>5</v>
       </c>
@@ -1048,227 +1041,193 @@
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C7" s="7"/>
-      <c r="D7" s="11" t="s">
+      <c r="H7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="H7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="S7" s="12" t="s">
+      <c r="I7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="S7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="T7" s="12"/>
+      <c r="T7" s="19"/>
       <c r="V7" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W7" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X7" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y7" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C8" s="7"/>
-      <c r="D8" s="11" t="s">
+      <c r="H8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="14" t="s">
+      <c r="I8" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="S8" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="S8" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="T8" s="14" t="s">
-        <v>59</v>
+      <c r="T8" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="V8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="X8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="W8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X8" s="8" t="s">
+      <c r="Y8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="Y8" s="8" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="D9" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="14">
-        <v>12</v>
-      </c>
-      <c r="F9" s="14">
-        <v>12</v>
-      </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="19">
         <v>5000</v>
       </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="S9" s="14">
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="S9" s="11">
         <v>10</v>
       </c>
-      <c r="T9" s="14">
+      <c r="T9" s="11">
         <v>10</v>
       </c>
       <c r="V9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="W9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="W9" s="7" t="s">
+      <c r="X9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="X9" s="7" t="s">
+      <c r="Y9" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="Y9" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="2:25" ht="42" x14ac:dyDescent="0.3">
       <c r="C10" s="7"/>
-      <c r="D10" s="11" t="s">
+      <c r="H10" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="9">
+        <v>5</v>
+      </c>
+      <c r="J10" s="9">
+        <v>6</v>
+      </c>
+      <c r="K10" s="9">
+        <v>7</v>
+      </c>
+      <c r="L10" s="9">
+        <v>12</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="W10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="X10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y10" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="H11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I10" s="11">
-        <v>5</v>
-      </c>
-      <c r="J10" s="11">
-        <v>6</v>
-      </c>
-      <c r="K10" s="11">
-        <v>7</v>
-      </c>
-      <c r="L10" s="11">
-        <v>12</v>
-      </c>
-      <c r="S10" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="T10" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="V10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="W10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="X10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y10" s="7" t="s">
+      <c r="I11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="H12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" ht="42" x14ac:dyDescent="0.3">
+      <c r="H14" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="H11" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="H12" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="2:25" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H13" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="2:25" ht="42" x14ac:dyDescent="0.3">
-      <c r="H14" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="K14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="L14" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.3">
@@ -1279,44 +1238,234 @@
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D21" s="6"/>
-      <c r="E21" s="7"/>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D20" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="H20" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="H21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D22" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="H22" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="H23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D24" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="19"/>
+      <c r="H24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+    </row>
+    <row r="26" spans="4:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="D26" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="11">
+        <v>12</v>
+      </c>
+      <c r="F26" s="11">
+        <v>12</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I26" s="10">
+        <v>5</v>
+      </c>
+      <c r="J26" s="10">
+        <v>6</v>
+      </c>
+      <c r="K26" s="10">
+        <v>7</v>
+      </c>
+      <c r="L26" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D27" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="H28" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="4:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="H29" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="D3:F3"/>
+  <mergeCells count="22">
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="V4:Y4"/>
+    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="D20:F20"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="I9:L9"/>
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="I4:L4"/>
-    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E22:F22"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="I6:L6"/>
-    <mergeCell ref="V4:Y4"/>
-    <mergeCell ref="V5:Y5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Final_Report/TableforReport.xlsx
+++ b/Final_Report/TableforReport.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AAA_IC\A_ICL\Y4\7_MEng_Final_Year_Project\Final_Year_Project\Final_Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62DF0AB-FAE9-49DE-8EA1-3BFBDD4B6917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DC4F41-E5CE-400B-8232-4CFC8E023181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="73">
   <si>
     <t>T2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,30 +45,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>flip angle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>initial magnetisation M0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>off-resonance profile range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number of TR before record signal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T2* range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2 complete period</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TR range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,18 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2-10ms (0.4 ms increment)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sample size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number of different off-resonance frequency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>list of pulse sequence used</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,22 +241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Monte Carlo simulation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fixed coefficients</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data simulated</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13-53 ms (1 ms increment)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Multi-Echo FLASH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -319,6 +272,50 @@
   </si>
   <si>
     <t>100 ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simulation Parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of different off-resonance frequencies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flip angle, α</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of TR before record signal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sample size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data simulation range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2~10ms (0.4 ms increment)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13~53 ms (1 ms increment)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initial magnetisation, M0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0mm×1.0mm×5.0 mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>256×256</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -326,7 +323,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,6 +347,19 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -359,7 +369,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -417,25 +427,252 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -465,8 +702,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -475,9 +730,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -486,13 +738,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -775,142 +1109,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D16"/>
+  <dimension ref="B2:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="27.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.4140625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="25.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="15" t="s">
+    <row r="2" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="15"/>
-      <c r="C4" s="3" t="s">
+    <row r="4" spans="2:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="32"/>
+      <c r="C4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="15"/>
-      <c r="C5" s="3" t="s">
+    <row r="5" spans="2:4" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="32"/>
+      <c r="C5" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="32"/>
+      <c r="C6" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="32"/>
+      <c r="C7" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="32"/>
+      <c r="C8" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="24">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="33"/>
+      <c r="C9" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="15"/>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="15"/>
-      <c r="C7" s="3" t="s">
+    </row>
+    <row r="11" spans="2:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="32"/>
+      <c r="C11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="33"/>
+      <c r="C12" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="15"/>
-      <c r="C8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="15"/>
-      <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="15"/>
-      <c r="C10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11"/>
-      <c r="D11"/>
-    </row>
-    <row r="12" spans="2:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12"/>
-      <c r="D12"/>
-    </row>
-    <row r="13" spans="2:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13"/>
-      <c r="D13"/>
-    </row>
-    <row r="14" spans="2:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="15"/>
-      <c r="C15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="15"/>
-      <c r="C16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>64</v>
+      <c r="D12" s="25" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="B10:B12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -922,534 +1231,531 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19665D0-91A2-449F-800B-D0BCEEA4FD5B}">
   <dimension ref="B1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="6"/>
-    <col min="2" max="2" width="16.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="16.9140625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="7" customWidth="1"/>
-    <col min="8" max="8" width="17.75" style="7" customWidth="1"/>
-    <col min="9" max="12" width="12.33203125" style="8" customWidth="1"/>
-    <col min="13" max="13" width="8.75" style="8" customWidth="1"/>
-    <col min="14" max="17" width="8.75" style="7" customWidth="1"/>
-    <col min="18" max="16384" width="8.6640625" style="6"/>
+    <col min="1" max="1" width="8.6640625" style="2"/>
+    <col min="2" max="2" width="16.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.9140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.75" style="3" customWidth="1"/>
+    <col min="9" max="12" width="12.33203125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="8.75" style="4" customWidth="1"/>
+    <col min="14" max="17" width="8.75" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="G3" s="10"/>
+      <c r="H3" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="V4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C5" s="3"/>
+      <c r="H5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="V5" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C6" s="3"/>
+      <c r="H6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="S6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="T6" s="17"/>
+      <c r="V6" s="4">
+        <v>5</v>
+      </c>
+      <c r="W6" s="4">
+        <v>6</v>
+      </c>
+      <c r="X6" s="4">
+        <v>7</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C7" s="3"/>
+      <c r="H7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="S7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="T7" s="14"/>
+      <c r="V7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C8" s="3"/>
+      <c r="H8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="S8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="H9" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="G3" s="14"/>
-      <c r="H3" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-    </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="I9" s="14">
+        <v>5000</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="S9" s="7">
+        <v>10</v>
+      </c>
+      <c r="T9" s="7">
+        <v>10</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" ht="42" x14ac:dyDescent="0.3">
+      <c r="C10" s="3"/>
+      <c r="H10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="5">
+        <v>5</v>
+      </c>
+      <c r="J10" s="5">
+        <v>6</v>
+      </c>
+      <c r="K10" s="5">
+        <v>7</v>
+      </c>
+      <c r="L10" s="5">
+        <v>12</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="H11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="H12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" ht="42" x14ac:dyDescent="0.3">
+      <c r="H14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D20" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="H20" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="H21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="22"/>
+      <c r="H22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="H23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="H24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="V4" s="23" t="s">
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+    </row>
+    <row r="26" spans="4:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="D26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="7">
+        <v>12</v>
+      </c>
+      <c r="F26" s="7">
+        <v>12</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I26" s="6">
+        <v>5</v>
+      </c>
+      <c r="J26" s="6">
+        <v>6</v>
+      </c>
+      <c r="K26" s="6">
+        <v>7</v>
+      </c>
+      <c r="L26" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-    </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="C5" s="7"/>
-      <c r="H5" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="V5" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="23"/>
-    </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="C6" s="7"/>
-      <c r="H6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="19" t="s">
+      <c r="J27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="S6" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="T6" s="24"/>
-      <c r="V6" s="8">
-        <v>5</v>
-      </c>
-      <c r="W6" s="8">
-        <v>6</v>
-      </c>
-      <c r="X6" s="8">
-        <v>7</v>
-      </c>
-      <c r="Y6" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="C7" s="7"/>
-      <c r="H7" s="9" t="s">
+      <c r="L27" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="S7" s="19" t="s">
+    </row>
+    <row r="28" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="H28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T7" s="19"/>
-      <c r="V7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="W7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="X7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y7" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="C8" s="7"/>
-      <c r="H8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="S8" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="T8" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="W8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="X8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y8" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="H9" s="9" t="s">
+      <c r="J28" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="19">
-        <v>5000</v>
-      </c>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="S9" s="11">
-        <v>10</v>
-      </c>
-      <c r="T9" s="11">
-        <v>10</v>
-      </c>
-      <c r="V9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="W9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="X9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y9" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="2:25" ht="42" x14ac:dyDescent="0.3">
-      <c r="C10" s="7"/>
-      <c r="H10" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" s="9">
-        <v>5</v>
-      </c>
-      <c r="J10" s="9">
-        <v>6</v>
-      </c>
-      <c r="K10" s="9">
-        <v>7</v>
-      </c>
-      <c r="L10" s="9">
-        <v>12</v>
-      </c>
-      <c r="S10" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="W10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="X10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y10" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="H11" s="9" t="s">
+      <c r="L28" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="H12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="2:25" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H13" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="9" t="s">
+    </row>
+    <row r="29" spans="4:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="H29" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I29" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J29" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K29" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L29" s="6" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="2:25" ht="42" x14ac:dyDescent="0.3">
-      <c r="H14" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D17" s="6"/>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D20" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="H20" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-    </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D21" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="17"/>
-      <c r="H21" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-    </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D22" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="21"/>
-      <c r="H22" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-    </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D23" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="24"/>
-      <c r="H23" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-    </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D24" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="19"/>
-      <c r="H24" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-    </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D25" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-    </row>
-    <row r="26" spans="4:12" ht="42" x14ac:dyDescent="0.3">
-      <c r="D26" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="11">
-        <v>12</v>
-      </c>
-      <c r="F26" s="11">
-        <v>12</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="I26" s="10">
-        <v>5</v>
-      </c>
-      <c r="J26" s="10">
-        <v>6</v>
-      </c>
-      <c r="K26" s="10">
-        <v>7</v>
-      </c>
-      <c r="L26" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D27" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="H28" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="4:12" ht="42" x14ac:dyDescent="0.3">
-      <c r="H29" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I6:L6"/>
     <mergeCell ref="V4:Y4"/>
     <mergeCell ref="V5:Y5"/>
     <mergeCell ref="E23:F23"/>
@@ -1463,9 +1769,224 @@
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="E22:F22"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC130038-0012-4294-8308-510E98C0B0AD}">
+  <dimension ref="D3:M12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="23.1640625" style="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="4:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="35"/>
+      <c r="I4" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="42"/>
+    </row>
+    <row r="5" spans="4:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="36"/>
+      <c r="I5" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="38"/>
+    </row>
+    <row r="6" spans="4:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="37"/>
+      <c r="I6" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="38"/>
+    </row>
+    <row r="7" spans="4:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="I7" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="38"/>
+    </row>
+    <row r="8" spans="4:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="38"/>
+    </row>
+    <row r="9" spans="4:13" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="13">
+        <v>12</v>
+      </c>
+      <c r="F9" s="39">
+        <v>12</v>
+      </c>
+      <c r="I9" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="11">
+        <v>5</v>
+      </c>
+      <c r="K9" s="12">
+        <v>6</v>
+      </c>
+      <c r="L9" s="12">
+        <v>7</v>
+      </c>
+      <c r="M9" s="43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="4:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="I11" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="4:13" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I12" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Final_Report/TableforReport.xlsx
+++ b/Final_Report/TableforReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AAA_IC\A_ICL\Y4\7_MEng_Final_Year_Project\Final_Year_Project\Final_Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DC4F41-E5CE-400B-8232-4CFC8E023181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E56142-1A57-45DC-AD39-667EB22E3CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="75">
   <si>
     <t>T2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -295,10 +295,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Data simulation range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2~10ms (0.4 ms increment)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -316,6 +312,18 @@
   </si>
   <si>
     <t>256×256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of acquisition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N                                         (Number of acquisition = N)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Simulation Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -670,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -705,16 +713,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -738,95 +807,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1111,109 +1113,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="25.4140625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="25.4140625" style="18" customWidth="1"/>
     <col min="4" max="4" width="25.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="32"/>
-      <c r="C4" s="29" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="32"/>
-      <c r="C5" s="29" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="15">
         <v>1000</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="32"/>
-      <c r="C6" s="29" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="32"/>
-      <c r="C7" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="24">
+      <c r="B7" s="33"/>
+      <c r="C7" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="32"/>
-      <c r="C8" s="29" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="15">
         <v>500</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="33"/>
-      <c r="C9" s="30" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="16">
         <v>1000</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="33"/>
+      <c r="C11" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="32"/>
-      <c r="C11" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="24" t="s">
+    </row>
+    <row r="12" spans="2:4" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="34"/>
+      <c r="C12" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="33"/>
-      <c r="C12" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1258,13 +1260,13 @@
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.3">
       <c r="G3" s="10"/>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
@@ -1273,68 +1275,68 @@
       <c r="H4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
-      <c r="V4" s="16" t="s">
+      <c r="V4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
       <c r="H5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
-      <c r="V5" s="16" t="s">
+      <c r="V5" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C6" s="3"/>
       <c r="H6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
-      <c r="S6" s="17" t="s">
+      <c r="S6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="T6" s="17"/>
+      <c r="T6" s="38"/>
       <c r="V6" s="4">
         <v>5</v>
       </c>
@@ -1353,16 +1355,16 @@
       <c r="H7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="S7" s="14" t="s">
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="S7" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="T7" s="14"/>
+      <c r="T7" s="36"/>
       <c r="V7" s="4" t="s">
         <v>22</v>
       </c>
@@ -1381,12 +1383,12 @@
       <c r="H8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
       <c r="S8" s="5" t="s">
         <v>51</v>
       </c>
@@ -1410,12 +1412,12 @@
       <c r="H9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="36">
         <v>5000</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
       <c r="S9" s="7">
         <v>10</v>
       </c>
@@ -1560,90 +1562,90 @@
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="H20" s="15" t="s">
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="H20" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="19"/>
+      <c r="F21" s="40"/>
       <c r="H21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="I21" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="22"/>
+      <c r="F22" s="43"/>
       <c r="H22" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="14" t="s">
+      <c r="I22" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="17"/>
+      <c r="F23" s="38"/>
       <c r="H23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I23" s="14" t="s">
+      <c r="I23" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="14"/>
+      <c r="F24" s="36"/>
       <c r="H24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="14" t="s">
+      <c r="I24" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D25" s="5" t="s">
@@ -1658,12 +1660,12 @@
       <c r="H25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I25" s="14" t="s">
+      <c r="I25" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
     </row>
     <row r="26" spans="4:12" ht="42" x14ac:dyDescent="0.3">
       <c r="D26" s="5" t="s">
@@ -1753,11 +1755,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="V4:Y4"/>
-    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="S6:T6"/>
@@ -1766,229 +1769,198 @@
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="I9:L9"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="V4:Y4"/>
+    <mergeCell ref="V5:Y5"/>
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="I4:L4"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC130038-0012-4294-8308-510E98C0B0AD}">
-  <dimension ref="D3:M12"/>
+  <dimension ref="B3:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="23.1640625" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="23.1640625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="5.5" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" style="22" customWidth="1"/>
+    <col min="7" max="8" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="4:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="48" t="s">
+    <row r="3" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="C4" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="49"/>
+      <c r="F4" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="47"/>
+    </row>
+    <row r="5" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="51"/>
+      <c r="F5" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="44"/>
+    </row>
+    <row r="6" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="45"/>
+      <c r="F6" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="44"/>
+    </row>
+    <row r="7" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="44"/>
+      <c r="F7" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="44"/>
+    </row>
+    <row r="8" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="44"/>
+    </row>
+    <row r="9" spans="2:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="I4" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="42"/>
-    </row>
-    <row r="5" spans="4:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="36"/>
-      <c r="I5" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="38"/>
-    </row>
-    <row r="6" spans="4:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="37"/>
-      <c r="I6" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="38"/>
-    </row>
-    <row r="7" spans="4:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="49" t="s">
+      <c r="C9" s="12">
         <v>12</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="38"/>
-      <c r="I7" s="49" t="s">
+      <c r="D9" s="23">
         <v>12</v>
       </c>
-      <c r="J7" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="38"/>
-    </row>
-    <row r="8" spans="4:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="38"/>
-    </row>
-    <row r="9" spans="4:13" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="13">
+      <c r="F9" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="13">
+        <v>7</v>
+      </c>
+      <c r="H9" s="25">
         <v>12</v>
       </c>
-      <c r="F9" s="39">
-        <v>12</v>
-      </c>
-      <c r="I9" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="J9" s="11">
-        <v>5</v>
-      </c>
-      <c r="K9" s="12">
-        <v>6</v>
-      </c>
-      <c r="L9" s="12">
-        <v>7</v>
-      </c>
-      <c r="M9" s="43">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="4:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="50" t="s">
+    </row>
+    <row r="10" spans="2:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="C10" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="D10" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="49" t="s">
+      <c r="F10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="12" t="s">
+      <c r="G10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="43" t="s">
+      <c r="H10" s="25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="I11" s="49" t="s">
+    <row r="11" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="12" t="s">
+      <c r="G11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="43" t="s">
+      <c r="H11" s="25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="4:13" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I12" s="50" t="s">
+    <row r="12" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F12" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="J12" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" s="44" t="s">
+      <c r="G12" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="M12" s="45" t="s">
+      <c r="H12" s="27" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>